--- a/CMS-API/Resources/Template/TempCarRecord.xlsx
+++ b/CMS-API/Resources/Template/TempCarRecord.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Company Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>Sign Out Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car Temp Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.CarTempNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -568,20 +576,21 @@
     <col min="4" max="4" width="17.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="7" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="20" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="19.75" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.25" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="20" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,37 +610,40 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,39 +662,42 @@
       <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1"/>
+  <autoFilter ref="A1:Q1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CMS-API/Resources/Template/TempCarRecord.xlsx
+++ b/CMS-API/Resources/Template/TempCarRecord.xlsx
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Company Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sign Out Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +153,10 @@
   </si>
   <si>
     <t>&amp;=result.CarTempNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company Distance (Km)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,9 +563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -586,7 +586,7 @@
     <col min="14" max="14" width="16.375" style="7" customWidth="1"/>
     <col min="15" max="15" width="14.5" style="4" customWidth="1"/>
     <col min="16" max="16" width="10.375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="20" style="4" customWidth="1"/>
+    <col min="17" max="17" width="25.125" style="4" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>12</v>
@@ -631,7 +631,7 @@
         <v>22</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>25</v>
@@ -640,7 +640,7 @@
         <v>27</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>

--- a/CMS-API/Resources/Template/TempCarRecord.xlsx
+++ b/CMS-API/Resources/Template/TempCarRecord.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shc_workspace\CMS\CMS-API\Resources\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stan.chen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -164,8 +164,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -223,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +256,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,9 +573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -586,7 +596,7 @@
     <col min="14" max="14" width="16.375" style="7" customWidth="1"/>
     <col min="15" max="15" width="14.5" style="4" customWidth="1"/>
     <col min="16" max="16" width="10.375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="25.125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="25.125" style="13" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -639,7 +649,7 @@
       <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -692,7 +702,7 @@
       <c r="P2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="12" t="s">
         <v>29</v>
       </c>
     </row>
